--- a/data/trans_orig/IP24_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP24_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{744B29A7-47FD-4DDD-8ABF-DB5ABD9F413D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D0C497E-17E2-4453-9E41-6551BB4F89B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8556B44B-6B67-4262-99A7-1DB8754D5127}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A94D4818-287D-4214-8871-723E2F811634}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -104,55 +104,55 @@
     <t>20,05%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
   </si>
   <si>
     <t>24,52%</t>
   </si>
   <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
   </si>
   <si>
     <t>22,33%</t>
   </si>
   <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
   </si>
   <si>
     <t>79,95%</t>
   </si>
   <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>75,48%</t>
   </si>
   <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
   </si>
   <si>
     <t>77,67%</t>
   </si>
   <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -161,577 +161,571 @@
     <t>22,57%</t>
   </si>
   <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>26,08%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
   </si>
   <si>
     <t>24,21%</t>
   </si>
   <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si no hacen ejercicio en 2012 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>Menores según si no hacen ejercicio en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
     <t>21,96%</t>
   </si>
   <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
   </si>
   <si>
     <t>78,04%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si no hacen ejercicio en 2012 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>Menores según si no hacen ejercicio en 2015 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
+    <t>80,52%</t>
   </si>
   <si>
     <t>80,69%</t>
   </si>
   <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
+    <t>82,33%</t>
   </si>
   <si>
     <t>Menores según si no hacen ejercicio en 2023 (Tasa respuesta: 99,38%)</t>
@@ -740,211 +734,217 @@
     <t>20,86%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
   </si>
   <si>
     <t>24,12%</t>
   </si>
   <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
   </si>
   <si>
     <t>22,39%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
   </si>
   <si>
     <t>79,14%</t>
   </si>
   <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
   </si>
   <si>
     <t>77,61%</t>
   </si>
   <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
   </si>
   <si>
     <t>16,4%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
   </si>
   <si>
     <t>20,21%</t>
   </si>
   <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
   </si>
   <si>
     <t>18,22%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
   </si>
   <si>
     <t>83,6%</t>
   </si>
   <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
   </si>
   <si>
     <t>79,79%</t>
   </si>
   <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
   </si>
   <si>
     <t>81,78%</t>
   </si>
   <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>11,34%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
   </si>
   <si>
     <t>79,44%</t>
   </si>
   <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
+    <t>84,0%</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0703B2B5-0744-47C0-92F4-7499EBA1A9D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569ED51A-4C57-4D9F-A01F-5252FE687DA6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2257,7 +2257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A86D101-7537-49AC-B39E-96C0C86A2F23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FCA145-C3FB-4E2C-8FC7-FD3D2E890581}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2691,7 +2691,7 @@
         <v>115</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="H10" s="7">
         <v>144</v>
@@ -2700,13 +2700,13 @@
         <v>97610</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>256</v>
@@ -2715,13 +2715,13 @@
         <v>176922</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2736,13 @@
         <v>409458</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H11" s="7">
         <v>505</v>
@@ -2751,13 +2751,13 @@
         <v>350254</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M11" s="7">
         <v>1093</v>
@@ -2766,13 +2766,13 @@
         <v>759712</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2840,13 @@
         <v>28759</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -2855,13 +2855,13 @@
         <v>30110</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -2870,13 +2870,13 @@
         <v>58869</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2891,13 @@
         <v>141053</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H14" s="7">
         <v>192</v>
@@ -2906,13 +2906,13 @@
         <v>136702</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>392</v>
@@ -2921,13 +2921,13 @@
         <v>277756</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +2995,13 @@
         <v>118446</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H16" s="7">
         <v>211</v>
@@ -3010,13 +3010,13 @@
         <v>143451</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>379</v>
@@ -3025,13 +3025,13 @@
         <v>261896</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3046,13 @@
         <v>624510</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H17" s="7">
         <v>806</v>
@@ -3061,13 +3061,13 @@
         <v>562287</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="M17" s="7">
         <v>1698</v>
@@ -3076,13 +3076,13 @@
         <v>1186798</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,7 +3158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BABABB-235A-4B76-BE7E-E1CB1B1BD62F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F5879D-F23B-4C6C-8353-9EBC4C1A10B6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3175,7 +3175,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3419,13 +3419,13 @@
         <v>7535</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -3434,13 +3434,13 @@
         <v>12996</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -3449,13 +3449,13 @@
         <v>20532</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3470,13 @@
         <v>60379</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H8" s="7">
         <v>71</v>
@@ -3485,13 +3485,13 @@
         <v>46382</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>158</v>
@@ -3500,13 +3500,13 @@
         <v>106761</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3574,13 @@
         <v>71303</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>161</v>
@@ -3589,13 +3589,13 @@
         <v>102538</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>266</v>
@@ -3604,13 +3604,13 @@
         <v>173841</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3625,13 @@
         <v>415132</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>551</v>
@@ -3640,13 +3640,13 @@
         <v>368395</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1138</v>
@@ -3655,13 +3655,13 @@
         <v>783527</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3729,13 @@
         <v>45566</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -3744,13 +3744,13 @@
         <v>38833</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -3759,13 +3759,13 @@
         <v>84398</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3780,13 @@
         <v>140637</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="H14" s="7">
         <v>200</v>
@@ -3795,13 +3795,13 @@
         <v>133870</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>401</v>
@@ -3810,13 +3810,13 @@
         <v>274508</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>36</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,13 +3884,13 @@
         <v>124404</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H16" s="7">
         <v>237</v>
@@ -3899,13 +3899,13 @@
         <v>154366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
         <v>421</v>
@@ -3914,13 +3914,13 @@
         <v>278770</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3935,13 @@
         <v>616149</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>822</v>
@@ -3950,13 +3950,13 @@
         <v>548648</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>56</v>
+        <v>225</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>1697</v>
@@ -3965,13 +3965,13 @@
         <v>1164797</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,7 +4047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13ABC74D-2CC3-4BAC-8C8A-03C801FBF048}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92AAF46-E3FC-445D-8D2C-EA4A5B8868AA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4064,7 +4064,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4320,13 +4320,13 @@
         <v>12070</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -4335,13 +4335,13 @@
         <v>12351</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -4350,13 +4350,13 @@
         <v>24421</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4371,13 @@
         <v>45799</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H8" s="7">
         <v>53</v>
@@ -4386,13 +4386,13 @@
         <v>38851</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M8" s="7">
         <v>115</v>
@@ -4401,13 +4401,13 @@
         <v>84650</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4475,13 @@
         <v>80331</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
@@ -4490,13 +4490,13 @@
         <v>90480</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>254</v>
@@ -4505,13 +4505,13 @@
         <v>170810</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4526,13 @@
         <v>409534</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H11" s="7">
         <v>510</v>
@@ -4541,13 +4541,13 @@
         <v>357140</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M11" s="7">
         <v>1035</v>
@@ -4556,13 +4556,13 @@
         <v>766675</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4630,13 @@
         <v>26720</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -4645,13 +4645,13 @@
         <v>24468</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -4660,13 +4660,13 @@
         <v>51187</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,13 +4681,13 @@
         <v>147129</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>190</v>
@@ -4696,13 +4696,13 @@
         <v>126902</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>386</v>
@@ -4711,13 +4711,13 @@
         <v>274031</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +4785,13 @@
         <v>119121</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>185</v>
@@ -4800,13 +4800,13 @@
         <v>127298</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M16" s="7">
         <v>371</v>
@@ -4815,13 +4815,13 @@
         <v>246419</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4836,13 @@
         <v>602461</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H17" s="7">
         <v>754</v>
@@ -4851,13 +4851,13 @@
         <v>524065</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>1537</v>

--- a/data/trans_orig/IP24_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP24_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D0C497E-17E2-4453-9E41-6551BB4F89B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0A89674-CCE7-4440-89D2-650685853042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A94D4818-287D-4214-8871-723E2F811634}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C53DDE3F-AD97-4F4A-AFC6-D8BFBD1AA813}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="302">
-  <si>
-    <t>Menores según si no hacen ejercicio en 2007 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+  <si>
+    <t>Menores según si no hacen ejercicio en su tiempo libre en 2007 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,265 +68,253 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
     <t>22,57%</t>
   </si>
   <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
   </si>
   <si>
     <t>24,21%</t>
   </si>
   <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
   </si>
   <si>
     <t>77,43%</t>
   </si>
   <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
   </si>
   <si>
     <t>75,79%</t>
   </si>
   <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
     <t>27,45%</t>
   </si>
   <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
   </si>
   <si>
     <t>25,54%</t>
   </si>
   <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
   </si>
   <si>
     <t>72,55%</t>
   </si>
   <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
   </si>
   <si>
     <t>74,46%</t>
   </si>
   <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
   </si>
   <si>
     <t>25,29%</t>
   </si>
   <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
   </si>
   <si>
     <t>74,71%</t>
   </si>
   <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
-    <t>Menores según si no hacen ejercicio en 2012 (Tasa respuesta: 98,95%)</t>
+    <t>Menores según si no hacen ejercicio en su tiempo libre en 2012 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
   </si>
   <si>
     <t>12,39%</t>
@@ -335,616 +323,631 @@
     <t>7,49%</t>
   </si>
   <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
+    <t>19,48%</t>
   </si>
   <si>
     <t>14,94%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
   </si>
   <si>
     <t>87,61%</t>
   </si>
   <si>
-    <t>80,53%</t>
+    <t>80,52%</t>
   </si>
   <si>
     <t>92,51%</t>
   </si>
   <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
     <t>85,06%</t>
   </si>
   <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
   </si>
   <si>
     <t>16,23%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
   </si>
   <si>
     <t>83,77%</t>
   </si>
   <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>81,11%</t>
   </si>
   <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>16,94%</t>
   </si>
   <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
   </si>
   <si>
     <t>17,49%</t>
   </si>
   <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
   </si>
   <si>
     <t>83,06%</t>
   </si>
   <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>82,51%</t>
   </si>
   <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
   </si>
   <si>
     <t>20,33%</t>
   </si>
   <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>Menores según si no hacen ejercicio en su tiempo libre en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>Menores según si no hacen ejercicio en su tiempo libre en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
     <t>22,81%</t>
   </si>
   <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
   </si>
   <si>
     <t>77,19%</t>
   </si>
   <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>Menores según si no hacen ejercicio en 2016 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
   </si>
   <si>
     <t>82,14%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>Menores según si no hacen ejercicio en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
   </si>
 </sst>
 </file>
@@ -1356,8 +1359,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569ED51A-4C57-4D9F-A01F-5252FE687DA6}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFC6864-E690-4FD1-87EC-03A2ECA530D0}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1474,10 +1477,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7">
-        <v>726</v>
+        <v>22127</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1489,81 +1492,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="I4" s="7">
+        <v>17409</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="N4" s="7">
-        <v>726</v>
+        <v>39535</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>68108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="I5" s="7">
+        <v>69436</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>137544</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1572,151 +1579,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90235</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177079</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="D7" s="7">
-        <v>17409</v>
+        <v>108323</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
+        <v>161</v>
+      </c>
+      <c r="I7" s="7">
+        <v>107513</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="7">
-        <v>22127</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>61</v>
+        <v>326</v>
       </c>
       <c r="N7" s="7">
-        <v>39535</v>
+        <v>215836</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>104</v>
+        <v>462</v>
       </c>
       <c r="D8" s="7">
-        <v>69435</v>
+        <v>307033</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>100</v>
+        <v>557</v>
       </c>
       <c r="I8" s="7">
-        <v>68108</v>
+        <v>368776</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>204</v>
+        <v>1019</v>
       </c>
       <c r="N8" s="7">
-        <v>137545</v>
+        <v>675809</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,153 +1734,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>627</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>415356</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>135</v>
+        <v>718</v>
       </c>
       <c r="I9" s="7">
-        <v>90235</v>
+        <v>476289</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>265</v>
+        <v>1345</v>
       </c>
       <c r="N9" s="7">
-        <v>177080</v>
+        <v>891645</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7">
-        <v>107513</v>
+        <v>41281</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="I10" s="7">
-        <v>108323</v>
+        <v>43225</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>326</v>
+        <v>125</v>
       </c>
       <c r="N10" s="7">
-        <v>215836</v>
+        <v>84505</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>557</v>
+        <v>193</v>
       </c>
       <c r="D11" s="7">
-        <v>368776</v>
+        <v>132063</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>462</v>
+        <v>170</v>
       </c>
       <c r="I11" s="7">
-        <v>307033</v>
+        <v>114263</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1019</v>
+        <v>363</v>
       </c>
       <c r="N11" s="7">
-        <v>675809</v>
+        <v>246327</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,153 +1889,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>718</v>
+        <v>253</v>
       </c>
       <c r="D12" s="7">
-        <v>476289</v>
+        <v>173344</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>627</v>
+        <v>235</v>
       </c>
       <c r="I12" s="7">
-        <v>415356</v>
+        <v>157488</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1345</v>
+        <v>488</v>
       </c>
       <c r="N12" s="7">
-        <v>891645</v>
+        <v>330832</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="D13" s="7">
-        <v>43225</v>
+        <v>171730</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>60</v>
+        <v>252</v>
       </c>
       <c r="I13" s="7">
-        <v>41281</v>
+        <v>168147</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>125</v>
+        <v>512</v>
       </c>
       <c r="N13" s="7">
-        <v>84505</v>
+        <v>339877</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>170</v>
+        <v>755</v>
       </c>
       <c r="D14" s="7">
-        <v>114263</v>
+        <v>507205</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>193</v>
+        <v>831</v>
       </c>
       <c r="I14" s="7">
-        <v>132063</v>
+        <v>552475</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>363</v>
+        <v>1586</v>
       </c>
       <c r="N14" s="7">
-        <v>246327</v>
+        <v>1059680</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,216 +2044,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>235</v>
+        <v>1015</v>
       </c>
       <c r="D15" s="7">
-        <v>157488</v>
+        <v>678935</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>253</v>
+        <v>1083</v>
       </c>
       <c r="I15" s="7">
-        <v>173344</v>
+        <v>720622</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>488</v>
+        <v>2098</v>
       </c>
       <c r="N15" s="7">
-        <v>330832</v>
+        <v>1399557</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>253</v>
-      </c>
-      <c r="D16" s="7">
-        <v>168873</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>260</v>
-      </c>
-      <c r="I16" s="7">
-        <v>171730</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>513</v>
-      </c>
-      <c r="N16" s="7">
-        <v>340603</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>831</v>
-      </c>
-      <c r="D17" s="7">
-        <v>552475</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>755</v>
-      </c>
-      <c r="I17" s="7">
-        <v>507205</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1586</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1059680</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1084</v>
-      </c>
-      <c r="D18" s="7">
-        <v>721348</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I18" s="7">
-        <v>678935</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2099</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1400283</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2257,8 +2110,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FCA145-C3FB-4E2C-8FC7-FD3D2E890581}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FE253C-F4C4-49ED-939A-D186288B27FB}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2274,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2375,96 +2228,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>15730</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10376</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>26106</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>75331</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="I5" s="7">
+        <v>73357</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>148688</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,151 +2330,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>91061</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="I6" s="7">
+        <v>83733</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>174794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="D7" s="7">
-        <v>10376</v>
+        <v>97610</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="I7" s="7">
-        <v>15730</v>
+        <v>79312</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="N7" s="7">
-        <v>26106</v>
+        <v>176922</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>103</v>
+        <v>505</v>
       </c>
       <c r="D8" s="7">
-        <v>73357</v>
+        <v>350254</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>109</v>
+        <v>588</v>
       </c>
       <c r="I8" s="7">
-        <v>75331</v>
+        <v>409458</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>212</v>
+        <v>1093</v>
       </c>
       <c r="N8" s="7">
-        <v>148688</v>
+        <v>759712</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,153 +2485,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>118</v>
+        <v>649</v>
       </c>
       <c r="D9" s="7">
-        <v>83733</v>
+        <v>447864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>132</v>
+        <v>700</v>
       </c>
       <c r="I9" s="7">
-        <v>91061</v>
+        <v>488770</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>250</v>
+        <v>1349</v>
       </c>
       <c r="N9" s="7">
-        <v>174794</v>
+        <v>936634</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>79312</v>
+        <v>30110</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>97610</v>
+        <v>28759</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
-        <v>256</v>
+        <v>85</v>
       </c>
       <c r="N10" s="7">
-        <v>176922</v>
+        <v>58869</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>588</v>
+        <v>192</v>
       </c>
       <c r="D11" s="7">
-        <v>409458</v>
+        <v>136702</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>505</v>
+        <v>200</v>
       </c>
       <c r="I11" s="7">
-        <v>350254</v>
+        <v>141053</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
-        <v>1093</v>
+        <v>392</v>
       </c>
       <c r="N11" s="7">
-        <v>759712</v>
+        <v>277756</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,153 +2640,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>700</v>
+        <v>236</v>
       </c>
       <c r="D12" s="7">
-        <v>488770</v>
+        <v>166812</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>649</v>
+        <v>241</v>
       </c>
       <c r="I12" s="7">
-        <v>447864</v>
+        <v>169812</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1349</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>936634</v>
+        <v>336625</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="D13" s="7">
-        <v>28759</v>
+        <v>143451</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="I13" s="7">
-        <v>30110</v>
+        <v>118446</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
-        <v>85</v>
+        <v>379</v>
       </c>
       <c r="N13" s="7">
-        <v>58869</v>
+        <v>261896</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>200</v>
+        <v>806</v>
       </c>
       <c r="D14" s="7">
-        <v>141053</v>
+        <v>562287</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
-        <v>192</v>
+        <v>891</v>
       </c>
       <c r="I14" s="7">
-        <v>136702</v>
+        <v>623869</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
-        <v>392</v>
+        <v>1697</v>
       </c>
       <c r="N14" s="7">
-        <v>277756</v>
+        <v>1186157</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,216 +2795,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>241</v>
+        <v>1017</v>
       </c>
       <c r="D15" s="7">
-        <v>169812</v>
+        <v>705738</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>236</v>
+        <v>1059</v>
       </c>
       <c r="I15" s="7">
-        <v>166812</v>
+        <v>742315</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>2076</v>
       </c>
       <c r="N15" s="7">
-        <v>336625</v>
+        <v>1448053</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>168</v>
-      </c>
-      <c r="D16" s="7">
-        <v>118446</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="7">
-        <v>211</v>
-      </c>
-      <c r="I16" s="7">
-        <v>143451</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M16" s="7">
-        <v>379</v>
-      </c>
-      <c r="N16" s="7">
-        <v>261896</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>892</v>
-      </c>
-      <c r="D17" s="7">
-        <v>624510</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H17" s="7">
-        <v>806</v>
-      </c>
-      <c r="I17" s="7">
-        <v>562287</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1698</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1186798</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1060</v>
-      </c>
-      <c r="D18" s="7">
-        <v>742956</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I18" s="7">
-        <v>705738</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2077</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1448694</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3158,8 +2861,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F5879D-F23B-4C6C-8353-9EBC4C1A10B6}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B6ED3A-364C-46EE-9854-3ECD32C51248}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3175,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3276,88 +2979,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="D4" s="7">
+        <v>12996</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7535</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="N4" s="7">
+        <v>20532</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="D5" s="7">
+        <v>46382</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="I5" s="7">
+        <v>60379</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>158</v>
+      </c>
+      <c r="N5" s="7">
+        <v>106761</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,147 +3081,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="I6" s="7">
+        <v>67914</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>187</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127293</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="D7" s="7">
-        <v>7535</v>
+        <v>102538</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I7" s="7">
-        <v>12996</v>
+        <v>71303</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
-        <v>29</v>
+        <v>266</v>
       </c>
       <c r="N7" s="7">
-        <v>20532</v>
+        <v>173841</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>87</v>
+        <v>551</v>
       </c>
       <c r="D8" s="7">
-        <v>60379</v>
+        <v>368395</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
-        <v>71</v>
+        <v>587</v>
       </c>
       <c r="I8" s="7">
-        <v>46382</v>
+        <v>415132</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
-        <v>158</v>
+        <v>1138</v>
       </c>
       <c r="N8" s="7">
-        <v>106761</v>
+        <v>783527</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,153 +3236,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>98</v>
+        <v>712</v>
       </c>
       <c r="D9" s="7">
-        <v>67914</v>
+        <v>470933</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>692</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>486435</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>187</v>
+        <v>1404</v>
       </c>
       <c r="N9" s="7">
-        <v>127293</v>
+        <v>957368</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="D10" s="7">
-        <v>71303</v>
+        <v>38833</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="I10" s="7">
-        <v>102538</v>
+        <v>45566</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="N10" s="7">
-        <v>173841</v>
+        <v>84398</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>587</v>
+        <v>200</v>
       </c>
       <c r="D11" s="7">
-        <v>415132</v>
+        <v>133870</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>201</v>
       </c>
       <c r="I11" s="7">
-        <v>368395</v>
+        <v>140637</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
-        <v>1138</v>
+        <v>401</v>
       </c>
       <c r="N11" s="7">
-        <v>783527</v>
+        <v>274508</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,153 +3391,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>692</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>486435</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>712</v>
+        <v>269</v>
       </c>
       <c r="I12" s="7">
-        <v>470933</v>
+        <v>186203</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1404</v>
+        <v>527</v>
       </c>
       <c r="N12" s="7">
-        <v>957368</v>
+        <v>358906</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>68</v>
+        <v>237</v>
       </c>
       <c r="D13" s="7">
-        <v>45566</v>
+        <v>154366</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="I13" s="7">
-        <v>38833</v>
+        <v>124404</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
-        <v>126</v>
+        <v>421</v>
       </c>
       <c r="N13" s="7">
-        <v>84398</v>
+        <v>278770</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>201</v>
+        <v>822</v>
       </c>
       <c r="D14" s="7">
-        <v>140637</v>
+        <v>548648</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
-        <v>200</v>
+        <v>875</v>
       </c>
       <c r="I14" s="7">
-        <v>133870</v>
+        <v>616149</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
-        <v>401</v>
+        <v>1697</v>
       </c>
       <c r="N14" s="7">
-        <v>274508</v>
+        <v>1164797</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,216 +3546,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>269</v>
+        <v>1059</v>
       </c>
       <c r="D15" s="7">
-        <v>186203</v>
+        <v>703014</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1059</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>740553</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>527</v>
+        <v>2118</v>
       </c>
       <c r="N15" s="7">
-        <v>358906</v>
+        <v>1443567</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>184</v>
-      </c>
-      <c r="D16" s="7">
-        <v>124404</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H16" s="7">
-        <v>237</v>
-      </c>
-      <c r="I16" s="7">
-        <v>154366</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="7">
-        <v>421</v>
-      </c>
-      <c r="N16" s="7">
-        <v>278770</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>875</v>
-      </c>
-      <c r="D17" s="7">
-        <v>616149</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H17" s="7">
-        <v>822</v>
-      </c>
-      <c r="I17" s="7">
-        <v>548648</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1697</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1164797</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="Q17" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1059</v>
-      </c>
-      <c r="D18" s="7">
-        <v>740553</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1059</v>
-      </c>
-      <c r="I18" s="7">
-        <v>703014</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2118</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1443567</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4047,8 +3612,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92AAF46-E3FC-445D-8D2C-EA4A5B8868AA}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFB0FFD-1EC3-460F-B073-8B29AA6FC1AE}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4064,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4165,96 +3730,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D4" s="7">
+        <v>16888</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>13928</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>17</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>30816</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="D5" s="7">
+        <v>37790</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>47139</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>84928</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,151 +3832,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54678</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>61067</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>115744</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="D7" s="7">
-        <v>12070</v>
+        <v>112812</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I7" s="7">
-        <v>12351</v>
+        <v>91962</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
-        <v>36</v>
+        <v>254</v>
       </c>
       <c r="N7" s="7">
-        <v>24421</v>
+        <v>204774</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>62</v>
+        <v>510</v>
       </c>
       <c r="D8" s="7">
-        <v>45799</v>
+        <v>345371</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
-        <v>53</v>
+        <v>525</v>
       </c>
       <c r="I8" s="7">
-        <v>38851</v>
+        <v>422085</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
-        <v>115</v>
+        <v>1035</v>
       </c>
       <c r="N8" s="7">
-        <v>84650</v>
+        <v>767457</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,153 +3987,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>82</v>
+        <v>639</v>
       </c>
       <c r="D9" s="7">
-        <v>57869</v>
+        <v>458183</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>650</v>
       </c>
       <c r="I9" s="7">
-        <v>51202</v>
+        <v>514047</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>151</v>
+        <v>1289</v>
       </c>
       <c r="N9" s="7">
-        <v>109071</v>
+        <v>972231</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7">
-        <v>80331</v>
+        <v>25695</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>90480</v>
+        <v>29610</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="N10" s="7">
-        <v>170810</v>
+        <v>55306</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>525</v>
+        <v>190</v>
       </c>
       <c r="D11" s="7">
-        <v>409534</v>
+        <v>123856</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
-        <v>510</v>
+        <v>196</v>
       </c>
       <c r="I11" s="7">
-        <v>357140</v>
+        <v>152973</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
-        <v>1035</v>
+        <v>386</v>
       </c>
       <c r="N11" s="7">
-        <v>766675</v>
+        <v>276828</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,153 +4142,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>650</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>489865</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>639</v>
+        <v>237</v>
       </c>
       <c r="I12" s="7">
-        <v>447620</v>
+        <v>182583</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1289</v>
+        <v>467</v>
       </c>
       <c r="N12" s="7">
-        <v>937485</v>
+        <v>332134</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="D13" s="7">
-        <v>26720</v>
+        <v>155395</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="I13" s="7">
-        <v>24468</v>
+        <v>135501</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
-        <v>81</v>
+        <v>371</v>
       </c>
       <c r="N13" s="7">
-        <v>51187</v>
+        <v>290896</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>196</v>
+        <v>753</v>
       </c>
       <c r="D14" s="7">
-        <v>147129</v>
+        <v>507017</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
-        <v>190</v>
+        <v>783</v>
       </c>
       <c r="I14" s="7">
-        <v>126902</v>
+        <v>622196</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
-        <v>386</v>
+        <v>1536</v>
       </c>
       <c r="N14" s="7">
-        <v>274031</v>
+        <v>1129213</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,216 +4297,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>237</v>
+        <v>938</v>
       </c>
       <c r="D15" s="7">
-        <v>173849</v>
+        <v>662412</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>969</v>
       </c>
       <c r="I15" s="7">
-        <v>151370</v>
+        <v>757697</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>467</v>
+        <v>1907</v>
       </c>
       <c r="N15" s="7">
-        <v>325218</v>
+        <v>1420109</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>186</v>
-      </c>
-      <c r="D16" s="7">
-        <v>119121</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H16" s="7">
-        <v>185</v>
-      </c>
-      <c r="I16" s="7">
-        <v>127298</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="M16" s="7">
-        <v>371</v>
-      </c>
-      <c r="N16" s="7">
-        <v>246419</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>783</v>
-      </c>
-      <c r="D17" s="7">
-        <v>602461</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H17" s="7">
-        <v>754</v>
-      </c>
-      <c r="I17" s="7">
-        <v>524065</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1537</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1126527</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>969</v>
-      </c>
-      <c r="D18" s="7">
-        <v>721582</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>939</v>
-      </c>
-      <c r="I18" s="7">
-        <v>651363</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1908</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1372946</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
